--- a/biology/Histoire de la zoologie et de la botanique/Robert_Jameson/Robert_Jameson.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Jameson/Robert_Jameson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Jameson est un géologue et un minéralogiste  écossais, né le 11 juillet 1774 à Leith et mort le 19 avril 1854 à Édimbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à Édimbourg où il devient apprenti d’un chirurgien. Son but est de devenir chirurgien de marine afin de voyager. Il fréquente l’université de la ville et étudie la médecine, la botanique, la chimie et l’histoire naturelle.
 En 1793, le professeur d’histoire naturelle John Walker (1731-1803) le convainc d’abandonner l’idée de devenir chirurgien de marine et de s’adonner plutôt à la science et notamment à la géologie et à la minéralogie.
@@ -545,7 +559,9 @@
           <t>Description d'espèce minérale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On lui doit la description de nombreuses espèces minérales :
 bournonite 1808
